--- a/data/xlsx/space.xlsx
+++ b/data/xlsx/space.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\typed_matrix\data\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1D8EE63-EE7D-4FEE-AB41-E35360CFE120}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C5EC388-571F-4B07-80AB-7A0D4CCFFF5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-21710" yWindow="-7890" windowWidth="21820" windowHeight="38020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,10 +39,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>bool</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -55,10 +51,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>list(int, 3)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>出生点坐标</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -71,15 +63,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>list(list(int, 3), 2, #)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>((-10000,-1000, -10000)#(10000, 1000, 10000))</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(0, 0, 0)</t>
+    <t>[["int", 3], 2]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>["int", 3]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[0, 0, 0]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[[-10000,-1000, -10000],[10000, 1000, 10000]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uint</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -408,12 +408,12 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="F86" sqref="F86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="34.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.1640625" customWidth="1"/>
     <col min="4" max="4" width="18.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -428,35 +428,35 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
         <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>8</v>
-      </c>
-      <c r="D3" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -467,7 +467,7 @@
         <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D4" t="b">
         <v>1</v>
@@ -481,7 +481,7 @@
         <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D5" t="b">
         <v>0</v>
